--- a/TestData/CMS/test_GetSolutionByWherePage_data.xlsx
+++ b/TestData/CMS/test_GetSolutionByWherePage_data.xlsx
@@ -48,7 +48,7 @@
     <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-8"}</t>
   </si>
   <si>
-    <t>{"filter":'{"Appid":"","page":1,"rows":10}',"token":"A01eyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9.eyJjbGllbnRfaWQiOiJhYWRjNzM0My02NWJjLTQxOGUtODY1ZS1jN2MzMzIyZDBkYWQiLCJzZXNzaW9uX2lkIjoiODQ2YjU3NjNiNDU3NGE3YTgyNGQxZTE0Y2IxZjZjYjlSRFMxIiwidG9rZW5faWQiOiJkODY2ZjFlMDczNzU0MDQ4YjNmMjQwNzUxYjMyZmEyOSIsInJlZnJlc2h0b2tlbl9pZCI6IjRlM2VlZGQzMWVhYjQxYjY5NjAwZWFjMzkzZDcxMTdiIiwidmFsaWRhdGVfdHlwZSI6MSwic2NvcGUiOiIqIiwic291cmNlIjoiQSIsImNsaWVudF9pcCI6IjIyMy43OS4zNy44NCIsImV4cCI6MTU5MTc5NDU4NS4wLCJjcmVhdGVfZnJvbSI6Im1haW4iLCJyZHNfZmxhZyI6MX0.RuQ-19JOQdhCxiKheCCQyTxlvvY0WcKVtQD5GkksaqA"}</t>
+    <t>{"filter":'{"Appid":"","page":1,"rows":10}',"token":"A01eyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9.eyJjbGllbnRfaWQiOiJhYWRjNzM0My02NWJjLTQxOGUtODY1ZS1jN2MzMzIyZDBkYWQiLCJzZXNzaW9uX2lkIjoiMjQzOTM0MWNhMzI0NGNjMjg5YjU1N2U5OTUxOTJjNWZSRFMxIiwidG9rZW5faWQiOiIxNzE1NGJhZTYzODg0M2ExYjQ4NGFjY2MyZTg2NmIxMCIsInJlZnJlc2h0b2tlbl9pZCI6ImUwZTQ3NmI2ZjQ3YTQ5ZDNhN2Y0MzliNzk3NTJhZWE3IiwidmFsaWRhdGVfdHlwZSI6MSwic2NvcGUiOiIqIiwic291cmNlIjoiQSIsImNsaWVudF9pcCI6IjIyMy43OS4zNy44NCIsImV4cCI6MTU5MjU3Mjg1OS4wLCJjcmVhdGVfZnJvbSI6Im1haW4iLCJyZHNfZmxhZyI6MX0.G1cKGSKxi5J9kz0Ga1ktld3OtzVesQ9a4-DiGOzFkqA"}</t>
   </si>
 </sst>
 </file>
@@ -56,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -79,9 +79,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,65 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -160,32 +169,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,19 +207,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,19 +223,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,49 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,109 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,26 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,11 +447,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +476,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/TestData/CMS/test_GetSolutionByWherePage_data.xlsx
+++ b/TestData/CMS/test_GetSolutionByWherePage_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>case_name</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>{"filter":'{"Appid":"","page":1,"rows":10}',"token":"A01eyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9.eyJjbGllbnRfaWQiOiJhYWRjNzM0My02NWJjLTQxOGUtODY1ZS1jN2MzMzIyZDBkYWQiLCJzZXNzaW9uX2lkIjoiMjQzOTM0MWNhMzI0NGNjMjg5YjU1N2U5OTUxOTJjNWZSRFMxIiwidG9rZW5faWQiOiIxNzE1NGJhZTYzODg0M2ExYjQ4NGFjY2MyZTg2NmIxMCIsInJlZnJlc2h0b2tlbl9pZCI6ImUwZTQ3NmI2ZjQ3YTQ5ZDNhN2Y0MzliNzk3NTJhZWE3IiwidmFsaWRhdGVfdHlwZSI6MSwic2NvcGUiOiIqIiwic291cmNlIjoiQSIsImNsaWVudF9pcCI6IjIyMy43OS4zNy44NCIsImV4cCI6MTU5MjU3Mjg1OS4wLCJjcmVhdGVfZnJvbSI6Im1haW4iLCJyZHNfZmxhZyI6MX0.G1cKGSKxi5J9kz0Ga1ktld3OtzVesQ9a4-DiGOzFkqA"}</t>
+  </si>
+  <si>
+    <t>http://sgi.wyqcd.cn:7778/api/invoke?SID=CMSMgr-GetSolutionByWherePage</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-9"}</t>
+  </si>
+  <si>
+    <t>{"filter":'{"Appid":"","page":2,"rows":5}',"token":"A01eyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9.eyJjbGllbnRfaWQiOiJhYWRjNzM0My02NWJjLTQxOGUtODY1ZS1jN2MzMzIyZDBkYWQiLCJzZXNzaW9uX2lkIjoiMjQzOTM0MWNhMzI0NGNjMjg5YjU1N2U5OTUxOTJjNWZSRFMxIiwidG9rZW5faWQiOiIxNzE1NGJhZTYzODg0M2ExYjQ4NGFjY2MyZTg2NmIxMCIsInJlZnJlc2h0b2tlbl9pZCI6ImUwZTQ3NmI2ZjQ3YTQ5ZDNhN2Y0MzliNzk3NTJhZWE3IiwidmFsaWRhdGVfdHlwZSI6MSwic2NvcGUiOiIqIiwic291cmNlIjoiQSIsImNsaWVudF9pcCI6IjIyMy43OS4zNy44NCIsImV4cCI6MTU5MjU3Mjg1OS4wLCJjcmVhdGVfZnJvbSI6Im1haW4iLCJyZHNfZmxhZyI6MX0.G1cKGSKxi5J9kz0Ga1ktld3OtzVesQ9a5-DiGOzFkqA"}</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="72.75" customWidth="1"/>
@@ -1078,9 +1087,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" ht="94.5" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://sgi.wyqcd.cn:7777/api/invoke?SID=CMSMgr-GetSolutionByWherePage" tooltip="http://sgi.wyqcd.cn:7777/api/invoke?SID=CMSMgr-GetSolutionByWherePage"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://sgi.wyqcd.cn:7778/api/invoke?SID=CMSMgr-GetSolutionByWherePage" tooltip="http://sgi.wyqcd.cn:7777/api/invoke?SID=CMSMgr-GetSolutionByWherePage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestData/CMS/test_GetSolutionByWherePage_data.xlsx
+++ b/TestData/CMS/test_GetSolutionByWherePage_data.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
